--- a/Agenda Jul 20.xlsx
+++ b/Agenda Jul 20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masayuki.tanaka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1821319-908F-4A0E-B034-025E101C850A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5600D5A4-443A-449C-89F3-C438CD884C1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{19A04CE3-EAA7-4769-B3AA-89961D506824}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>Join Zoom Meeting</t>
   </si>
@@ -326,6 +326,38 @@
   </si>
   <si>
     <t>TM Kawauchi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>My mentor of Stay Home</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Innovative Planning Level2 Introduction to Toastmasters Mentoring</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The purpose of this project is to clearly define how Toastmasters envisions mentoring.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Route to Santiago de Compostela</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Presentation Mastery Level1-2 Evaluation and feedback -1st speech</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of this project is for the member to present a speech on any topic, </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>receive feedback, and apply the feedback to a second speech.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The purpose of this speech is for the member to present a speech and receive feedback from the evaluator.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1071,11 +1103,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A0C406-5369-4AB2-BF9A-E40282A2E21C}">
-  <dimension ref="B7:L81"/>
+  <dimension ref="B7:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1309,18 +1339,27 @@
       <c r="E33" t="s">
         <v>34</v>
       </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E34" t="s">
         <v>35</v>
       </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
         <v>36</v>
       </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.4">
@@ -1344,393 +1383,392 @@
       <c r="E38" t="s">
         <v>34</v>
       </c>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E39" t="s">
         <v>35</v>
       </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E42" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D42" s="2" t="s">
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="4:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="E43" t="s">
+      <c r="I44" s="5"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="4:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E45" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="E44" t="s">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="4:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E46" t="s">
         <v>35</v>
       </c>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="E45" t="s">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="4:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E47" t="s">
         <v>36</v>
       </c>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D47" s="2" t="s">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="4:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="E48" t="s">
+      <c r="I49" s="5"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E50" t="s">
         <v>34</v>
       </c>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="E49" t="s">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E51" t="s">
         <v>35</v>
       </c>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="E50" t="s">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E52" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D51" s="4" t="s">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D53" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L51" s="2" t="str">
+      <c r="L53" s="2" t="str">
         <f>L20</f>
         <v>TM Nakamichi</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D52" s="4"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="3">
-        <f>B31+TIME(0,SUM(J32:J50),0)</f>
-        <v>0.82708333333333317</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J53">
-        <v>5</v>
-      </c>
-      <c r="L53" s="2"/>
-    </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D54" s="4"/>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B55" s="3">
-        <f>B53+TIME(0,SUM(J53),0)</f>
+        <f>B31+TIME(0,SUM(J32:J52),0)</f>
+        <v>0.82708333333333317</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B57" s="3">
+        <f>B55+TIME(0,SUM(J55),0)</f>
         <v>0.83055555555555538</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D56" t="s">
-        <v>43</v>
-      </c>
-      <c r="J56">
-        <v>5</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D57" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J57">
-        <v>3</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="L57" s="2"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
-        <v>49</v>
-      </c>
-      <c r="L59" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D62" t="s">
         <v>50</v>
       </c>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D61" s="4" t="s">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D63" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L61" s="2" t="str">
+      <c r="L63" s="2" t="str">
         <f>L20</f>
         <v>TM Nakamichi</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B63" s="3">
-        <f>B55+TIME(0,SUM(J56:J60),0)</f>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B65" s="3">
+        <f>B57+TIME(0,SUM(J58:J62),0)</f>
         <v>0.83819444444444424</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J63">
+      <c r="J65">
         <v>5</v>
       </c>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D64" t="s">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="2" t="str">
+      <c r="L66" s="2" t="str">
         <f>L17</f>
         <v>TM Yokichi Watanabe</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D65" t="s">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="L65" s="2" t="str">
+      <c r="L67" s="2" t="str">
         <f>L22</f>
         <v>TM Kawai</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D66" t="s">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D68" t="s">
         <v>21</v>
       </c>
-      <c r="L66" s="2" t="str">
+      <c r="L68" s="2" t="str">
         <f>L23</f>
         <v>TM Kawai</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D67" t="s">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
         <v>17</v>
       </c>
-      <c r="L67" s="2" t="str">
+      <c r="L69" s="2" t="str">
         <f>L21</f>
         <v>TM Nishioka</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B69" s="3">
-        <f>B63+TIME(0,SUM(J63:J67),0)</f>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B71" s="3">
+        <f>B65+TIME(0,SUM(J65:J69),0)</f>
         <v>0.84166666666666645</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D70" s="7" t="s">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D72" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L70" s="2" t="str">
+      <c r="L72" s="2" t="str">
         <f>L11</f>
         <v>TM Takimoto</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B72" s="2" t="s">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B74" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B73" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J73" s="10"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B74" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J74" s="10"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B75" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J75" s="10"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B76" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="J76" s="10"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B77" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G77" s="10"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="12"/>
+      <c r="H77" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B78" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D78" s="10"/>
-      <c r="E78" s="13"/>
-      <c r="J78" s="14"/>
+      <c r="E78" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="10"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B79" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D79" s="10"/>
-      <c r="E79" s="13"/>
-      <c r="J79" s="14"/>
+      <c r="E79" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="12"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B80" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="13"/>
@@ -1738,18 +1776,40 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B81" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="13"/>
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B82" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="13"/>
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B83" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="17"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
